--- a/synthesis/Excel file for S-S forest plots.xlsx
+++ b/synthesis/Excel file for S-S forest plots.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Documents\GitHub\IALSA-2015-Portland\synthesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piccinin\Documents\GitHub\IALSA-2015-Portland\synthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>FEMALE</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>SLOPE-SLOPE Correlations</t>
+  </si>
+  <si>
+    <t>GRIP-TUG</t>
+  </si>
+  <si>
+    <t>TUG-Grip</t>
   </si>
 </sst>
 </file>
@@ -101,21 +107,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -132,17 +132,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,153 +436,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="A1:N13"/>
+      <selection activeCell="Q12" sqref="A1:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="2" style="1" customWidth="1"/>
+    <col min="1" max="17" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>-0.44400000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.76</v>
+      </c>
+      <c r="D4">
+        <v>-0.152</v>
+      </c>
+      <c r="E4">
+        <v>0.875</v>
+      </c>
+      <c r="F4">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="J4">
+        <v>-0.48699999999999999</v>
+      </c>
+      <c r="K4">
+        <v>1.7789999999999999</v>
+      </c>
+      <c r="L4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M4">
+        <v>2.3460000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.42</v>
+      </c>
+      <c r="O4">
+        <v>2.3119999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="M5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N5">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="C6">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="D6">
+        <v>-0.52300000000000002</v>
+      </c>
+      <c r="E6">
+        <v>1.109</v>
+      </c>
+      <c r="F6">
+        <v>0.12</v>
+      </c>
+      <c r="G6">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="K6">
+        <v>0.311</v>
+      </c>
+      <c r="L6">
+        <v>-0.26200000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="N6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O6">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="I7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="Q7">
+        <v>6.6630000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>-0.316</v>
+      </c>
+      <c r="C8">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="D8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="F8">
+        <v>-0.53200000000000003</v>
+      </c>
+      <c r="G8">
+        <v>3.202</v>
+      </c>
+      <c r="J8">
+        <v>-0.51300000000000001</v>
+      </c>
+      <c r="K8">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="L8">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="M8">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="N8">
+        <v>-0.32100000000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="D9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F9">
+        <v>-0.47099999999999997</v>
+      </c>
+      <c r="G9">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="J9">
+        <v>-0.47499999999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.59</v>
+      </c>
+      <c r="L9">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="N9">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="O9">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>-0.104</v>
+      </c>
+      <c r="G10">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H10">
+        <v>-0.26</v>
+      </c>
+      <c r="I10">
+        <v>0.17</v>
+      </c>
+      <c r="N10">
+        <v>-0.245</v>
+      </c>
+      <c r="O10">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="P10">
+        <v>-0.23799999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>-0.58299999999999996</v>
+      </c>
+      <c r="C11">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.374</v>
+      </c>
+      <c r="F11">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.24</v>
+      </c>
+      <c r="J11">
+        <v>-0.79200000000000004</v>
+      </c>
+      <c r="K11">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="N11">
+        <v>-0.7</v>
+      </c>
+      <c r="O11">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/synthesis/Excel file for S-S forest plots.xlsx
+++ b/synthesis/Excel file for S-S forest plots.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24390" windowHeight="12045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24390" windowHeight="12050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>FEMALE</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>TUG-Grip</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>850+</t>
+  </si>
+  <si>
+    <t>800+</t>
   </si>
 </sst>
 </file>
@@ -107,12 +116,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -147,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -156,6 +177,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,427 +467,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="A1:Q12"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="17" width="6.7109375" customWidth="1"/>
+    <col min="1" max="10" width="6.7265625" customWidth="1"/>
+    <col min="11" max="11" width="0.54296875" style="10" customWidth="1"/>
+    <col min="12" max="20" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="K1" s="8"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4">
         <v>-0.44400000000000001</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.76</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-0.152</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.875</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.41199999999999998</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.48399999999999999</v>
       </c>
-      <c r="J4">
+      <c r="L4">
+        <v>72</v>
+      </c>
+      <c r="M4">
         <v>-0.48699999999999999</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>1.7789999999999999</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>2.3460000000000001</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>0.42</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>2.3119999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>3905</v>
+      </c>
+      <c r="C5">
         <v>0.35799999999999998</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.60899999999999999</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.33500000000000002</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.54700000000000004</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.74199999999999999</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.43099999999999999</v>
       </c>
-      <c r="J5">
+      <c r="L5">
+        <v>3210</v>
+      </c>
+      <c r="M5">
         <v>0.26100000000000001</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>0.30299999999999999</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>0.33600000000000002</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>0.42599999999999999</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>286</v>
+      </c>
+      <c r="C6">
         <v>0.57799999999999996</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.1890000000000001</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.52300000000000002</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.109</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.12</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.98699999999999999</v>
       </c>
-      <c r="J6">
+      <c r="L6">
+        <v>238</v>
+      </c>
+      <c r="M6" s="7">
         <v>0.81599999999999995</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>0.311</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>-0.26200000000000001</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>0.91300000000000003</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="B7">
+        <v>224</v>
+      </c>
+      <c r="I7">
         <v>0.48799999999999999</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P7">
+      <c r="L7">
+        <v>252</v>
+      </c>
+      <c r="S7">
         <v>0.82799999999999996</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <v>6.6630000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
         <v>-0.316</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.19700000000000001</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.2829999999999999</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.53200000000000003</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3.202</v>
       </c>
-      <c r="J8">
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7">
         <v>-0.51300000000000001</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="L8">
+      <c r="O8" s="7">
         <v>0.56499999999999995</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>-0.32100000000000001</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>950</v>
+      </c>
+      <c r="C9">
         <v>-2.8000000000000001E-2</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.38600000000000001</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.6E-2</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.36199999999999999</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.47099999999999997</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.30599999999999999</v>
       </c>
-      <c r="J9">
+      <c r="L9">
+        <v>325</v>
+      </c>
+      <c r="M9">
         <v>-0.47499999999999998</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>0.59</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>-2.7E-2</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>0.39300000000000002</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>0.34499999999999997</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>0.32700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="F10">
+      <c r="B10">
+        <v>934</v>
+      </c>
+      <c r="G10">
         <v>-0.104</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.11600000000000001</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.26</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.17</v>
       </c>
-      <c r="N10">
+      <c r="L10">
+        <v>847</v>
+      </c>
+      <c r="Q10">
         <v>-0.245</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>0.28299999999999997</v>
       </c>
-      <c r="P10">
+      <c r="S10" s="7">
         <v>-0.23799999999999999</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>270</v>
+      </c>
+      <c r="C11">
         <v>-0.58299999999999996</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.90900000000000003</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.34399999999999997</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.374</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-4.2999999999999997E-2</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.24</v>
       </c>
-      <c r="J11">
+      <c r="L11">
+        <v>138</v>
+      </c>
+      <c r="M11" s="11">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>0.16900000000000001</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>0.10100000000000001</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>0.60399999999999998</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>-0.7</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/synthesis/Excel file for S-S forest plots.xlsx
+++ b/synthesis/Excel file for S-S forest plots.xlsx
@@ -177,9 +177,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -187,6 +184,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,13 +470,13 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="10" width="6.7265625" customWidth="1"/>
-    <col min="11" max="11" width="0.54296875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="0.54296875" style="9" customWidth="1"/>
     <col min="12" max="20" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,7 +495,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="8"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -511,40 +511,40 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="9"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6" t="s">
+      <c r="R2" s="11"/>
+      <c r="S2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="6"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -571,7 +571,7 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="L6">
         <v>238</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>0.81599999999999995</v>
       </c>
       <c r="N6">
@@ -788,13 +788,13 @@
       <c r="L8" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>-0.51300000000000001</v>
       </c>
       <c r="N8">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>0.56499999999999995</v>
       </c>
       <c r="P8">
@@ -882,7 +882,7 @@
       <c r="R10">
         <v>0.28299999999999997</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="6">
         <v>-0.23799999999999999</v>
       </c>
       <c r="T10">
@@ -917,7 +917,7 @@
       <c r="L11">
         <v>138</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <v>-0.79200000000000004</v>
       </c>
       <c r="N11">

--- a/synthesis/Excel file for S-S forest plots.xlsx
+++ b/synthesis/Excel file for S-S forest plots.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>FEMALE</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>800+</t>
+  </si>
+  <si>
+    <t>cm/s</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>gait metric</t>
   </si>
 </sst>
 </file>
@@ -467,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,7 +492,7 @@
     <col min="12" max="20" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -508,7 +520,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="11" t="s">
@@ -545,8 +557,11 @@
         <v>17</v>
       </c>
       <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>19</v>
@@ -596,7 +611,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -642,8 +657,11 @@
       <c r="R4">
         <v>2.3119999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -689,8 +707,11 @@
       <c r="R5">
         <v>0.29899999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -736,8 +757,11 @@
       <c r="R6">
         <v>0.66700000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -759,8 +783,11 @@
       <c r="T7">
         <v>6.6630000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -806,8 +833,11 @@
       <c r="R8">
         <v>0.31900000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -853,8 +883,11 @@
       <c r="R9">
         <v>0.32700000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -888,8 +921,11 @@
       <c r="T10">
         <v>0.11899999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -935,10 +971,16 @@
       <c r="R11">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
+      </c>
+      <c r="U12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/synthesis/Excel file for S-S forest plots.xlsx
+++ b/synthesis/Excel file for S-S forest plots.xlsx
@@ -482,7 +482,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="L4" sqref="L4:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/synthesis/Excel file for S-S forest plots.xlsx
+++ b/synthesis/Excel file for S-S forest plots.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>FEMALE</t>
   </si>
@@ -105,6 +105,27 @@
   </si>
   <si>
     <t>gait metric</t>
+  </si>
+  <si>
+    <t>?check</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>average of max??</t>
+  </si>
+  <si>
+    <t>averageof max from each hand?</t>
   </si>
 </sst>
 </file>
@@ -479,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:T11"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,7 +513,7 @@
     <col min="12" max="20" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -520,7 +541,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="11" t="s">
@@ -560,8 +581,11 @@
       <c r="U2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>19</v>
@@ -610,8 +634,11 @@
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -660,8 +687,11 @@
       <c r="U4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -710,8 +740,11 @@
       <c r="U5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -758,10 +791,13 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="U6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="V6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -786,8 +822,11 @@
       <c r="U7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -836,8 +875,11 @@
       <c r="U8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -886,8 +928,11 @@
       <c r="U9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -924,8 +969,11 @@
       <c r="U10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -974,8 +1022,11 @@
       <c r="U11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>

--- a/synthesis/Excel file for S-S forest plots.xlsx
+++ b/synthesis/Excel file for S-S forest plots.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>FEMALE</t>
   </si>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -217,6 +217,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,40 +547,40 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="11"/>
+      <c r="J2" s="12"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="T2" s="12"/>
       <c r="U2" t="s">
         <v>25</v>
       </c>
@@ -1034,8 +1037,477 @@
         <v>24</v>
       </c>
     </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T21" s="12"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>150</v>
+      </c>
+      <c r="C23">
+        <v>-0.44400000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.76</v>
+      </c>
+      <c r="E23">
+        <v>-0.152</v>
+      </c>
+      <c r="F23">
+        <v>0.875</v>
+      </c>
+      <c r="G23">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="H23">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="L23">
+        <v>72</v>
+      </c>
+      <c r="M23">
+        <v>-0.48699999999999999</v>
+      </c>
+      <c r="N23">
+        <v>1.7789999999999999</v>
+      </c>
+      <c r="O23">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="P23">
+        <v>2.3460000000000001</v>
+      </c>
+      <c r="Q23">
+        <v>0.42</v>
+      </c>
+      <c r="R23">
+        <v>2.3119999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>3905</v>
+      </c>
+      <c r="C24">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D24">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="E24">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F24">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="G24">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="L24">
+        <v>3210</v>
+      </c>
+      <c r="M24">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="P24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q24">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="R24">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>286</v>
+      </c>
+      <c r="C25">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="D25">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="E25">
+        <v>-0.52300000000000002</v>
+      </c>
+      <c r="F25">
+        <v>1.109</v>
+      </c>
+      <c r="G25">
+        <v>0.12</v>
+      </c>
+      <c r="H25">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="L25">
+        <v>238</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="N25">
+        <v>0.311</v>
+      </c>
+      <c r="O25">
+        <v>-0.26200000000000001</v>
+      </c>
+      <c r="P25">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="Q25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R25">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>224</v>
+      </c>
+      <c r="I26">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="J26">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L26">
+        <v>252</v>
+      </c>
+      <c r="S26">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="T26">
+        <v>6.6630000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>-0.316</v>
+      </c>
+      <c r="D27">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E27">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="G27">
+        <v>-0.53200000000000003</v>
+      </c>
+      <c r="H27">
+        <v>3.202</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="6">
+        <v>-0.51300000000000001</v>
+      </c>
+      <c r="N27">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="P27">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q27">
+        <v>-0.32100000000000001</v>
+      </c>
+      <c r="R27">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>950</v>
+      </c>
+      <c r="C28">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="E28">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="G28">
+        <v>-0.47099999999999997</v>
+      </c>
+      <c r="H28">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="L28">
+        <v>325</v>
+      </c>
+      <c r="M28">
+        <v>-0.47499999999999998</v>
+      </c>
+      <c r="N28">
+        <v>0.59</v>
+      </c>
+      <c r="O28">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="P28">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="Q28">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="R28">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>934</v>
+      </c>
+      <c r="G29">
+        <v>-0.104</v>
+      </c>
+      <c r="H29">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="I29">
+        <v>-0.26</v>
+      </c>
+      <c r="J29">
+        <v>0.17</v>
+      </c>
+      <c r="L29">
+        <v>847</v>
+      </c>
+      <c r="Q29">
+        <v>-0.245</v>
+      </c>
+      <c r="R29">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="S29" s="6">
+        <v>-0.23799999999999999</v>
+      </c>
+      <c r="T29">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>270</v>
+      </c>
+      <c r="C30">
+        <v>-0.58299999999999996</v>
+      </c>
+      <c r="D30">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E30">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F30">
+        <v>0.374</v>
+      </c>
+      <c r="G30">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="H30">
+        <v>0.24</v>
+      </c>
+      <c r="L30">
+        <v>138</v>
+      </c>
+      <c r="M30" s="10">
+        <v>-0.79200000000000004</v>
+      </c>
+      <c r="N30">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="P30">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="Q30">
+        <v>-0.7</v>
+      </c>
+      <c r="R30">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="S2:T2"/>
